--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,41 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43872,6 +43872,43 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43909,6 +43909,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>11600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43944,6 +43944,41 @@
         <v>11600</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43979,6 +43979,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>36900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44014,6 +44014,43 @@
         <v>36900</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44051,6 +44051,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44088,6 +44088,76 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>52800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44158,6 +44158,78 @@
         <v>52800</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44230,6 +44230,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44267,6 +44267,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44304,6 +44304,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44341,6 +44341,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>21100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44376,6 +44376,78 @@
         <v>21100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44448,6 +44448,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44485,6 +44485,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>57100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80815,6 +80815,41 @@
         <v>57100</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>42500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80850,6 +80850,41 @@
         <v>42500</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80885,6 +80885,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80920,6 +80920,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80955,6 +80955,43 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2266"/>
+  <dimension ref="A1:I2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80992,6 +80992,41 @@
         </is>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2267"/>
+  <dimension ref="A1:I2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81027,6 +81027,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81062,6 +81062,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2269"/>
+  <dimension ref="A1:I2270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81097,6 +81097,43 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2270"/>
+  <dimension ref="A1:I2271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81134,6 +81134,43 @@
         </is>
       </c>
     </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2271"/>
+  <dimension ref="A1:I2272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81171,6 +81171,43 @@
         </is>
       </c>
     </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2272"/>
+  <dimension ref="A1:I2273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81208,6 +81208,43 @@
         </is>
       </c>
     </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2273"/>
+  <dimension ref="A1:I2274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81245,6 +81245,43 @@
         </is>
       </c>
     </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2274" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81282,6 +81282,43 @@
         </is>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6297.xlsx
+++ b/data/6297.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2275"/>
+  <dimension ref="A1:I2276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81319,6 +81319,43 @@
         </is>
       </c>
     </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>6297</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>BOXPAK</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
